--- a/DataScan/bin/Debug/BW_21_5_2015.xlsx
+++ b/DataScan/bin/Debug/BW_21_5_2015.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Varinder\DataScan\DataScan\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="10905"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BW" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -47,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +48,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -92,24 +97,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -124,39 +123,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,10 +187,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -235,160 +232,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,9 +423,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>42132</v>
+        <v>42190</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -413,10 +434,944 @@
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>5184401</v>
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5184400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="4">
+        <v>5184400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>